--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159637.452801483</v>
+        <v>1157749.871285081</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>398.930828182902</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>28.51033041214308</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>163.2962083791359</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>97.64711324990996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.28399007890604</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>17.93359706704231</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185851</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>101.0041688483409</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750031</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>166.4704758913034</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>238.2336684417117</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056518</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404418</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>135.9533480677848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>101.8625755465357</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.20569823125469</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>3.094226026810333</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2134.371763268271</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1765.409246327859</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1407.143547721108</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1021.355295122864</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>610.3693903332567</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4422,16 +4422,16 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2486.702312640363</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>2317.766129712456</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>2317.766129712456</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>2668.350777470603</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>2668.350777470603</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>2668.350777470603</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>2668.350777470603</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1117.513150920515</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.513150920515</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1117.513150920515</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157407</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857191</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>306.0424055524566</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916692</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2035.589960916692</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857191</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4575213834697</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2449295548429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286127</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286127</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850826</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199.241504438408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>199.241504438408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>199.241504438408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>199.241504438408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>199.241504438408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247857</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247857</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188988</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819381</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>420.0340835819381</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.241504438408</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
         <v>1332.091733170013</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1258.27620142486</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1003.591713218973</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>714.1745431820127</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839954</v>
+        <v>241.9805482336715</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.7814158330674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>898.792518248838</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V25" t="n">
-        <v>644.108030042951</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>644.108030042951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>506.7814158330674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.7814158330674</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,34 +6221,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>223.1552313137079</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582206</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646848</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683726</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609663</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609662</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>883.1107261099201</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>655.1211752119027</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y28" t="n">
-        <v>434.3285960683726</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.1552313137079</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582206</v>
+        <v>400.2445180358629</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646848</v>
+        <v>1014.141587792752</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049853</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584492</v>
+        <v>326.3571123076813</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274843</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>139.8491098756938</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1788.841437417837</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1555.473663912766</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1356.55004098825</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1122.89373623266</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>950.6650506160133</v>
+        <v>730.4517433652458</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.6333367538541</v>
+        <v>565.4200295030864</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1552313137082</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582209</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>880.810628064685</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>634.0455001582209</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>880.810628064685</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083205</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,22 +7108,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>880.810628064685</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,49 +7333,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,22 +7424,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L42" t="n">
-        <v>880.810628064685</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>15.83804904622875</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>85.30006332127709</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.30006332127712</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294542</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.30006332127742</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>188.8856946302406</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>39.88923345256785</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>223.6742649934473</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L42" t="n">
-        <v>223.6742649934473</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>149.3132240315855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.48939961503665</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338616</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.0525224452877</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.00368395686561</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644303</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338619</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>89.75630732125244</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>184.6604227900553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>48.01209316311952</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>163.2500784030218</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>972279.0722882502</v>
+        <v>972279.0722882503</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972279.0722882504</v>
+        <v>972279.0722882503</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>972279.0722882504</v>
+        <v>972279.0722882503</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>972279.0722882504</v>
+        <v>972279.0722882503</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26323,7 +26323,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="F2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245943</v>
@@ -26332,7 +26332,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
@@ -26341,10 +26341,10 @@
         <v>427163.2442125333</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787487</v>
@@ -26353,7 +26353,7 @@
         <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,19 +26427,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563564</v>
@@ -26451,13 +26451,13 @@
         <v>37464.45686275955</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,13 +26485,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,10 +26500,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26528,25 +26528,25 @@
         <v>191412.8928641166</v>
       </c>
       <c r="E6" t="n">
-        <v>-221612.5193224576</v>
+        <v>-221709.9784484297</v>
       </c>
       <c r="F6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="G6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284665</v>
       </c>
       <c r="H6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="I6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="J6" t="n">
-        <v>127124.2979618454</v>
+        <v>127026.8388358734</v>
       </c>
       <c r="K6" t="n">
-        <v>253162.1382438291</v>
+        <v>253143.6445058949</v>
       </c>
       <c r="L6" t="n">
         <v>285524.4596950968</v>
@@ -26555,13 +26555,13 @@
         <v>161066.3512621267</v>
       </c>
       <c r="N6" t="n">
-        <v>295867.3664959637</v>
+        <v>295867.3664959638</v>
       </c>
       <c r="O6" t="n">
         <v>295867.3664959637</v>
       </c>
       <c r="P6" t="n">
-        <v>251704.761193118</v>
+        <v>251704.7611931181</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85334183789297</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.6273129116849</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>243.5798373625756</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.3898744131077</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>316.137056770885</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.9539485771476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.0104806616809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-7.264089481732067e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>166.413487634168</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35498,13 +35498,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,7 +35732,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.2102422761838</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.2102422761839</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>264.1781307173934</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2102422761841</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>395.9791095617652</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>373.0838068505807</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>472.9319699494717</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L42" t="n">
-        <v>472.9319699494717</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
